--- a/src/test/resources/excelData/LoginTest.xlsx
+++ b/src/test/resources/excelData/LoginTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thameeramalinga/DeveloperStackQA/FinalFW/DevStackAutomationFramework/src/test/resources/excelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thameeramalinga/DeveloperStackQA/JenkinsTestProject/DevStackAutomationFramework/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC011C-6476-6D46-9F49-DE630DA0B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F79A0B-9B86-B847-BA62-40EDB4F566CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{1BC3C561-4519-DC4B-97F5-0E0D12BD283E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>pointofsale</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testpos</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8FA32C-E2EF-4D4E-A323-FA8DBCB49818}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,6 +449,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
